--- a/Travis_County/Documentation/Travis_County_2017_bg_SVI.xlsx
+++ b/Travis_County/Documentation/Travis_County_2017_bg_SVI.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['PPUNIT' 'QEXTRCT' 'QEDLESHI' 'QSERV' 'QHISPC' 'QESL' 'QNOHLTH' 'QFHH'
+          <t>['QEXTRCT' 'QEDLESHI' 'QESL' 'QNOHLTH' 'PPUNIT' 'QSERV' 'QHISPC' 'QFHH'
  'PERCAP']</t>
         </is>
       </c>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['MEDAGE' 'QAGEDEP' 'QSSBEN']</t>
+          <t>['MEDAGE' 'QSSBEN' 'QAGEDEP']</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['PPUNIT' 'QRENTER' 'QPOVTY' 'QNOAUTO']</t>
+          <t>['PPUNIT' 'QRENTER' 'QNOAUTO' 'QPOVTY']</t>
         </is>
       </c>
     </row>
@@ -584,155 +584,155 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>PPUNIT</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7302277635614846</v>
+        <v>0.7677512013307708</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.004620265553080765</v>
+        <v>0.1449653481766418</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1512975031741777</v>
+        <v>0.01129679077873671</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0545872990130594</v>
+        <v>-0.2382017695991725</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.4752714233751672</v>
+        <v>0.09278788174314587</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>QEDLESHI</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7677511913183374</v>
+        <v>0.8777939278338194</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1449653505664406</v>
+        <v>0.213077928978771</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01129678599078328</v>
+        <v>-0.01839361500093432</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2382017650496178</v>
+        <v>-0.1076883429731288</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09278788561119072</v>
+        <v>0.1846338367566293</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>QEDLESHI</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.877793933021792</v>
+        <v>0.8009661475849839</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2130779235964615</v>
+        <v>0.1517950795169672</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.01839360962230008</v>
+        <v>-0.03424774416423925</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1076883442393492</v>
+        <v>-0.2374898287916476</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1846338473713447</v>
+        <v>0.2037776713559489</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>QSERV</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5817049372257884</v>
+        <v>0.6889886573070284</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3577287406387448</v>
+        <v>0.414959225541808</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2244058824899562</v>
+        <v>-0.1190897065630508</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.03201466777107302</v>
+        <v>-0.1154839642310589</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2754259478725354</v>
+        <v>0.2786568866560452</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QHISPC</t>
+          <t>PPUNIT</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8328587050403832</v>
+        <v>0.7302277711183555</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3339037450738082</v>
+        <v>-0.004620272024895255</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1364957904807652</v>
+        <v>-0.1512975164200612</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.1269704308693348</v>
+        <v>0.05458730556150756</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09670565249334595</v>
+        <v>-0.4752714593490717</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>QSERV</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8009661449175541</v>
+        <v>0.581704943683128</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1517950777004842</v>
+        <v>0.3577287418172193</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.03424774394570817</v>
+        <v>-0.2244058884840431</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.2374898280304555</v>
+        <v>-0.03201466441996235</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2037776768212274</v>
+        <v>0.2754259447697267</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>QHISPC</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6889886581195417</v>
+        <v>0.8328587063035261</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4149592262288362</v>
+        <v>0.3339037468887154</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1190896999544257</v>
+        <v>-0.1364957918037546</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.115483966344917</v>
+        <v>-0.126970430831828</v>
       </c>
       <c r="F8" t="n">
-        <v>0.278656896370206</v>
+        <v>0.09670564462395792</v>
       </c>
     </row>
     <row r="9">
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5630560174848608</v>
+        <v>0.5630560183163126</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3008187145654854</v>
+        <v>0.3008187155964411</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.095513173626251</v>
+        <v>-0.09551317755867508</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2634165315403454</v>
+        <v>0.2634165381813704</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03178269348764106</v>
+        <v>-0.03178270184700521</v>
       </c>
     </row>
     <row r="10">
@@ -764,19 +764,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4895374246541067</v>
+        <v>0.4895374235147206</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7214540924412403</v>
+        <v>0.7214540992653554</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2685725759671641</v>
+        <v>-0.2685725828240927</v>
       </c>
       <c r="E10" t="n">
-        <v>0.05482089860683299</v>
+        <v>0.05482090093234365</v>
       </c>
       <c r="F10" t="n">
-        <v>0.18312535117927</v>
+        <v>0.1831253412505047</v>
       </c>
     </row>
     <row r="11">
@@ -786,19 +786,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2150971440109055</v>
+        <v>0.2150971482753866</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8701305572213086</v>
+        <v>0.870130548924468</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1729034313348966</v>
+        <v>-0.1729034375056023</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0142515365962387</v>
+        <v>-0.0142515353605643</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2948729874682595</v>
+        <v>0.2948729845659209</v>
       </c>
     </row>
     <row r="12">
@@ -808,19 +808,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3857664778128806</v>
+        <v>0.3857664718237477</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8013369872884633</v>
+        <v>0.8013370028956395</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.03601197710565474</v>
+        <v>-0.03601197413356935</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.02873185494301043</v>
+        <v>-0.02873185735955726</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03016150205507568</v>
+        <v>-0.03016150937756498</v>
       </c>
     </row>
     <row r="13">
@@ -830,63 +830,63 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.310547262470854</v>
+        <v>-0.3105472617371984</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.246538429426827</v>
+        <v>-0.2465384280778078</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7910361807365249</v>
+        <v>0.7910361908750342</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.01289474326237975</v>
+        <v>-0.01289474291113122</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2717085841605006</v>
+        <v>-0.2717085724916322</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>QAGEDEP</t>
+          <t>QSSBEN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.04282432259531188</v>
+        <v>0.01836498286088173</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1184872960388995</v>
+        <v>-0.05367045675897775</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6543380977114776</v>
+        <v>0.7773306962764825</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6427560425405702</v>
+        <v>0.136209976584241</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1139548231976987</v>
+        <v>-0.1455945068606067</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>QSSBEN</t>
+          <t>QAGEDEP</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01836498062193265</v>
+        <v>-0.04282432190847357</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.0536704550579051</v>
+        <v>-0.1184872960740083</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7773307026735096</v>
+        <v>0.6543380961981018</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1362099709473573</v>
+        <v>0.6427560452936805</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1455945104196087</v>
+        <v>-0.1139548183463203</v>
       </c>
     </row>
     <row r="16">
@@ -896,19 +896,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2416846120371116</v>
+        <v>-0.2416846133880868</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08178103396692342</v>
+        <v>0.08178103263001013</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.02959552843600554</v>
+        <v>-0.02959553031661272</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7849928975866307</v>
+        <v>0.7849929020395576</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003645846115950876</v>
+        <v>0.003645848475871107</v>
       </c>
     </row>
     <row r="17">
@@ -918,19 +918,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.04556235852184229</v>
+        <v>-0.04556236170050956</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.05659266818184682</v>
+        <v>-0.05659266582526922</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1671554317435279</v>
+        <v>0.1671554332667903</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8778432103517438</v>
+        <v>0.8778431990123544</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0242050155512474</v>
+        <v>-0.0242050142911791</v>
       </c>
     </row>
     <row r="18">
@@ -940,63 +940,63 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01759023452870938</v>
+        <v>0.01759024404216022</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2288188117534955</v>
+        <v>0.2288188101098284</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.4234144287363591</v>
+        <v>-0.4234144374084097</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.09662324417498865</v>
+        <v>-0.09662324389171931</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7659446311347016</v>
+        <v>0.7659446219419647</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>QPOVTY</t>
+          <t>QNOAUTO</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3701334402679973</v>
+        <v>0.1660837693831291</v>
       </c>
       <c r="C19" t="n">
-        <v>0.157633475615365</v>
+        <v>0.06295541374020226</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.3817953714200449</v>
+        <v>-0.1064187480161447</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08010853061944063</v>
+        <v>-0.01530325772402283</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4611334680510979</v>
+        <v>0.6312035357109876</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>QNOAUTO</t>
+          <t>QPOVTY</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1660837593915019</v>
+        <v>0.3701334443131513</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06295541833532646</v>
+        <v>0.157633475077385</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1064187384595324</v>
+        <v>-0.3817953811110359</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.01530326265014326</v>
+        <v>0.08010853240336936</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6312035354106397</v>
+        <v>0.4611334541988245</v>
       </c>
     </row>
   </sheetData>
@@ -1133,34 +1133,34 @@
         <v>1.01176302747226</v>
       </c>
       <c r="I2" t="n">
-        <v>4.839746450906217</v>
+        <v>4.839746425340321</v>
       </c>
       <c r="J2" t="n">
-        <v>3.422021206471405</v>
+        <v>3.422021238437344</v>
       </c>
       <c r="K2" t="n">
-        <v>2.232417349047039</v>
+        <v>2.232417334146756</v>
       </c>
       <c r="L2" t="n">
-        <v>2.056337888802102</v>
+        <v>2.056337886114042</v>
       </c>
       <c r="M2" t="n">
-        <v>2.044708468765052</v>
+        <v>2.044708471301834</v>
       </c>
       <c r="N2" t="n">
-        <v>5.117234758546898</v>
+        <v>5.117234792812528</v>
       </c>
       <c r="O2" t="n">
-        <v>2.680150597288756</v>
+        <v>2.680150619567169</v>
       </c>
       <c r="P2" t="n">
-        <v>2.243476568521099</v>
+        <v>2.243476605342225</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.066288183410713</v>
+        <v>2.066288181755519</v>
       </c>
       <c r="R2" t="n">
-        <v>1.901714796742297</v>
+        <v>1.901714776046654</v>
       </c>
     </row>
     <row r="3">
@@ -1191,34 +1191,34 @@
         <v>0.03747270472119483</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2304641167098199</v>
+        <v>0.2304641154923962</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1629533907843526</v>
+        <v>0.1629533923065402</v>
       </c>
       <c r="K3" t="n">
-        <v>0.106305588049859</v>
+        <v>0.1063055873403217</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09792085184771913</v>
+        <v>0.09792085171971628</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09736706994119293</v>
+        <v>0.09736707006199209</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2693281451866789</v>
+        <v>0.2693281469901331</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1410605577520398</v>
+        <v>0.1410605589245879</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1180777141326894</v>
+        <v>0.1180777160706434</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1087520096531954</v>
+        <v>0.10875200956608</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1000902524601209</v>
+        <v>0.1000902513708765</v>
       </c>
     </row>
     <row r="4">
@@ -1249,34 +1249,34 @@
         <v>0.6381373038352784</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2304641167098199</v>
+        <v>0.2304641154923962</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3934175074941725</v>
+        <v>0.3934175077989364</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4997230955440315</v>
+        <v>0.4997230951392581</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5976439473917506</v>
+        <v>0.5976439468589744</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6950110173329436</v>
+        <v>0.6950110169209665</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2693281451866789</v>
+        <v>0.2693281469901331</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4103887029387187</v>
+        <v>0.4103887059147209</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5284664170714081</v>
+        <v>0.5284664219853643</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6372184267246035</v>
+        <v>0.6372184315514443</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7373086791847243</v>
+        <v>0.7373086829223208</v>
       </c>
     </row>
     <row r="5">
@@ -1307,34 +1307,34 @@
         <v>0.05872200934811297</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3315977890454311</v>
+        <v>0.3315977874903292</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2344615937308087</v>
+        <v>0.2344615960599521</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1529552559580988</v>
+        <v>0.1529552550278643</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1408910785666155</v>
+        <v>0.1408910784659567</v>
       </c>
       <c r="M5" t="n">
-        <v>0.140094282699046</v>
+        <v>0.1400942829558977</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3652854669830921</v>
+        <v>0.3652854675773677</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1913181842752981</v>
+        <v>0.1913181848957682</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1601469200976358</v>
+        <v>0.1601469219142283</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1474986158761178</v>
+        <v>0.1474986150102582</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1357508127678562</v>
+        <v>0.1357508106023777</v>
       </c>
     </row>
   </sheetData>
@@ -1390,19 +1390,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.117234758546898</v>
+        <v>5.117234792812528</v>
       </c>
       <c r="C2" t="n">
-        <v>2.680150597288756</v>
+        <v>2.680150619567169</v>
       </c>
       <c r="D2" t="n">
-        <v>2.243476568521099</v>
+        <v>2.243476605342225</v>
       </c>
       <c r="E2" t="n">
-        <v>2.066288183410713</v>
+        <v>2.066288181755519</v>
       </c>
       <c r="F2" t="n">
-        <v>1.901714796742297</v>
+        <v>1.901714776046654</v>
       </c>
     </row>
     <row r="3">
@@ -1412,19 +1412,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2693281451866789</v>
+        <v>0.2693281469901331</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1410605577520398</v>
+        <v>0.1410605589245879</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1180777141326894</v>
+        <v>0.1180777160706434</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1087520096531954</v>
+        <v>0.10875200956608</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1000902524601209</v>
+        <v>0.1000902513708765</v>
       </c>
     </row>
     <row r="4">
@@ -1434,19 +1434,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2693281451866789</v>
+        <v>0.2693281469901331</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4103887029387187</v>
+        <v>0.4103887059147209</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5284664170714081</v>
+        <v>0.5284664219853643</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6372184267246035</v>
+        <v>0.6372184315514443</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7373086791847243</v>
+        <v>0.7373086829223208</v>
       </c>
     </row>
     <row r="5">
@@ -1456,19 +1456,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3652854669830921</v>
+        <v>0.3652854675773677</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1913181842752981</v>
+        <v>0.1913181848957682</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1601469200976358</v>
+        <v>0.1601469219142283</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1474986158761178</v>
+        <v>0.1474986150102582</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1357508127678562</v>
+        <v>0.1357508106023777</v>
       </c>
     </row>
   </sheetData>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['PPUNIT', 'QEXTRCT', 'QEDLESHI', 'QSERV', 'QHISPC', 'QESL', 'QNOHLTH', 'QFHH', 'PERCAP', 'QRICH', 'MDHSEVAL', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QFEMLBR', 'QFEMALE', 'QRENTER', 'QPOVTY', 'QNOAUTO']]</t>
+          <t>[['QEXTRCT', 'QEDLESHI', 'QESL', 'QNOHLTH', 'PPUNIT', 'QSERV', 'QHISPC', 'QFHH', 'PERCAP', 'QRICH', 'MDHSEVAL', 'MEDAGE', 'QSSBEN', 'QAGEDEP', 'QFEMLBR', 'QFEMALE', 'QRENTER', 'QNOAUTO', 'QPOVTY']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/Travis_County/Documentation/Travis_County_2017_bg_SVI.xlsx
+++ b/Travis_County/Documentation/Travis_County_2017_bg_SVI.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['QEXTRCT' 'QEDLESHI' 'QESL' 'QNOHLTH' 'PPUNIT' 'QSERV' 'QHISPC' 'QFHH'
+          <t>['PPUNIT' 'QNOHLTH' 'QSERV' 'QEXTRCT' 'QESL' 'QHISPC' 'QEDLESHI' 'QFHH'
  'PERCAP']</t>
         </is>
       </c>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['MEDAGE' 'QSSBEN' 'QAGEDEP']</t>
+          <t>['MEDAGE' 'QAGEDEP' 'QSSBEN']</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['QAGEDEP' 'QFEMLBR' 'QFEMALE']</t>
+          <t>['QAGEDEP' 'QFEMALE' 'QFEMLBR']</t>
         </is>
       </c>
     </row>
@@ -584,155 +584,155 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>PPUNIT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7677512013307708</v>
+        <v>0.7302277669272809</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1449653481766418</v>
+        <v>-0.004620269588076043</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01129679077873671</v>
+        <v>-0.1512975051829958</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.2382017695991725</v>
+        <v>0.05458729952269146</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09278788174314587</v>
+        <v>-0.4752714268289649</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>QEDLESHI</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8777939278338194</v>
+        <v>0.6889886602202583</v>
       </c>
       <c r="C3" t="n">
-        <v>0.213077928978771</v>
+        <v>0.4149592268437005</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.01839361500093432</v>
+        <v>-0.1190896980125687</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1076883429731288</v>
+        <v>-0.1154839672367</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1846338367566293</v>
+        <v>0.2786568980252105</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>QSERV</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8009661475849839</v>
+        <v>0.5817049374264434</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1517950795169672</v>
+        <v>0.3577287403200355</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.03424774416423925</v>
+        <v>-0.2244058813072648</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2374898287916476</v>
+        <v>-0.03201466882836596</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2037776713559489</v>
+        <v>0.2754259478856783</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6889886573070284</v>
+        <v>0.7677511934101074</v>
       </c>
       <c r="C5" t="n">
-        <v>0.414959225541808</v>
+        <v>0.1449653485907693</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1190897065630508</v>
+        <v>0.01129678766226058</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1154839642310589</v>
+        <v>-0.2382017664847616</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2786568866560452</v>
+        <v>0.09278788606079744</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>PPUNIT</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7302277711183555</v>
+        <v>0.8009661392984533</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.004620272024895255</v>
+        <v>0.151795080540303</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1512975164200612</v>
+        <v>-0.03424774568502074</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05458730556150756</v>
+        <v>-0.2374898269416714</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4752714593490717</v>
+        <v>0.2037776736638281</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>QSERV</t>
+          <t>QHISPC</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.581704943683128</v>
+        <v>0.8328587039996096</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3577287418172193</v>
+        <v>0.3339037448970698</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2244058884840431</v>
+        <v>-0.1364957895465116</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.03201466441996235</v>
+        <v>-0.1269704316134753</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2754259447697267</v>
+        <v>0.09670565299798836</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>QHISPC</t>
+          <t>QEDLESHI</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8328587063035261</v>
+        <v>0.8777939322771465</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3339037468887154</v>
+        <v>0.2130779229266954</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1364957918037546</v>
+        <v>-0.01839360962630974</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.126970430831828</v>
+        <v>-0.1076883447776996</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09670564462395792</v>
+        <v>0.1846338469805828</v>
       </c>
     </row>
     <row r="9">
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5630560183163126</v>
+        <v>0.5630560154859281</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3008187155964411</v>
+        <v>0.3008187133860031</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.09551317755867508</v>
+        <v>-0.09551317270938871</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2634165381813704</v>
+        <v>0.2634165278540286</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03178270184700521</v>
+        <v>-0.03178269088452637</v>
       </c>
     </row>
     <row r="10">
@@ -764,19 +764,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4895374235147206</v>
+        <v>0.4895374274546244</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7214540992653554</v>
+        <v>0.7214540806533332</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2685725828240927</v>
+        <v>-0.2685725744248457</v>
       </c>
       <c r="E10" t="n">
-        <v>0.05482090093234365</v>
+        <v>0.05482089686608119</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1831253412505047</v>
+        <v>0.183125353910591</v>
       </c>
     </row>
     <row r="11">
@@ -786,19 +786,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2150971482753866</v>
+        <v>0.2150971475063948</v>
       </c>
       <c r="C11" t="n">
-        <v>0.870130548924468</v>
+        <v>0.8701305525241234</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1729034375056023</v>
+        <v>-0.1729034330861709</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0142515353605643</v>
+        <v>-0.01425153555799462</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2948729845659209</v>
+        <v>0.2948729863855478</v>
       </c>
     </row>
     <row r="12">
@@ -808,19 +808,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3857664718237477</v>
+        <v>0.3857664787720542</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8013370028956395</v>
+        <v>0.8013369875455929</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.03601197413356935</v>
+        <v>-0.03601197820671726</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.02873185735955726</v>
+        <v>-0.02873185417247733</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03016150937756498</v>
+        <v>-0.03016150210197751</v>
       </c>
     </row>
     <row r="13">
@@ -830,107 +830,107 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.3105472617371984</v>
+        <v>-0.3105472641016062</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2465384280778078</v>
+        <v>-0.2465384264432842</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7910361908750342</v>
+        <v>0.7910361932243746</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.01289474291113122</v>
+        <v>-0.0128947456807908</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2717085724916322</v>
+        <v>-0.2717085837049965</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>QSSBEN</t>
+          <t>QAGEDEP</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01836498286088173</v>
+        <v>-0.04282432074929374</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.05367045675897775</v>
+        <v>-0.1184872976686267</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7773306962764825</v>
+        <v>0.6543380974999534</v>
       </c>
       <c r="E14" t="n">
-        <v>0.136209976584241</v>
+        <v>0.6427560499114501</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1455945068606067</v>
+        <v>-0.1139548224937056</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>QAGEDEP</t>
+          <t>QSSBEN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.04282432190847357</v>
+        <v>0.01836498138439658</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1184872960740083</v>
+        <v>-0.05367045618418921</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6543380961981018</v>
+        <v>0.7773306998288915</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6427560452936805</v>
+        <v>0.1362099740686128</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1139548183463203</v>
+        <v>-0.1455945116013038</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>QFEMLBR</t>
+          <t>QFEMALE</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2416846133880868</v>
+        <v>-0.04556235957520197</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08178103263001013</v>
+        <v>-0.05659266691271623</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.02959553031661272</v>
+        <v>0.1671554291910123</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7849929020395576</v>
+        <v>0.8778432025863659</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003645848475871107</v>
+        <v>-0.02420501690989349</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>QFEMALE</t>
+          <t>QFEMLBR</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.04556236170050956</v>
+        <v>-0.2416846119055139</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.05659266582526922</v>
+        <v>0.08178103489040496</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1671554332667903</v>
+        <v>-0.0295955310337048</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8778431990123544</v>
+        <v>0.7849928999651834</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0242050142911791</v>
+        <v>0.003645846047376428</v>
       </c>
     </row>
     <row r="18">
@@ -940,19 +940,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01759024404216022</v>
+        <v>0.01759023509580655</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2288188101098284</v>
+        <v>0.2288188122079551</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.4234144374084097</v>
+        <v>-0.423414426863078</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.09662324389171931</v>
+        <v>-0.09662324553205429</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7659446219419647</v>
+        <v>0.7659446309671079</v>
       </c>
     </row>
     <row r="19">
@@ -962,19 +962,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1660837693831291</v>
+        <v>0.1660837603234652</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06295541374020226</v>
+        <v>0.06295541717908909</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1064187480161447</v>
+        <v>-0.1064187385486532</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.01530325772402283</v>
+        <v>-0.01530326288287446</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6312035357109876</v>
+        <v>0.6312035337968215</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3701334443131513</v>
+        <v>0.3701334413584173</v>
       </c>
       <c r="C20" t="n">
-        <v>0.157633475077385</v>
+        <v>0.1576334738980672</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.3817953811110359</v>
+        <v>-0.3817953695838431</v>
       </c>
       <c r="E20" t="n">
-        <v>0.08010853240336936</v>
+        <v>0.08010852895572017</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4611334541988245</v>
+        <v>0.4611334674601166</v>
       </c>
     </row>
   </sheetData>
@@ -1112,55 +1112,55 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.346593377154135</v>
+        <v>5.346593380343492</v>
       </c>
       <c r="C2" t="n">
-        <v>2.352336410236943</v>
+        <v>2.352336411856979</v>
       </c>
       <c r="D2" t="n">
-        <v>2.340013491349409</v>
+        <v>2.340013488429634</v>
       </c>
       <c r="E2" t="n">
-        <v>2.207229441589357</v>
+        <v>2.207229445501692</v>
       </c>
       <c r="F2" t="n">
-        <v>2.005491057745436</v>
+        <v>2.005491058151331</v>
       </c>
       <c r="G2" t="n">
-        <v>1.96628039800498</v>
+        <v>1.966280396698093</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01176302747226</v>
+        <v>1.011763029505047</v>
       </c>
       <c r="I2" t="n">
-        <v>4.839746425340321</v>
+        <v>4.839746430455178</v>
       </c>
       <c r="J2" t="n">
-        <v>3.422021238437344</v>
+        <v>3.42202125223686</v>
       </c>
       <c r="K2" t="n">
-        <v>2.232417334146756</v>
+        <v>2.232417339796182</v>
       </c>
       <c r="L2" t="n">
-        <v>2.056337886114042</v>
+        <v>2.056337895353981</v>
       </c>
       <c r="M2" t="n">
-        <v>2.044708471301834</v>
+        <v>2.044708469958762</v>
       </c>
       <c r="N2" t="n">
-        <v>5.117234792812528</v>
+        <v>5.117234762546761</v>
       </c>
       <c r="O2" t="n">
-        <v>2.680150619567169</v>
+        <v>2.680150570577836</v>
       </c>
       <c r="P2" t="n">
-        <v>2.243476605342225</v>
+        <v>2.243476579107345</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.066288181755519</v>
+        <v>2.066288182496249</v>
       </c>
       <c r="R2" t="n">
-        <v>1.901714776046654</v>
+        <v>1.90171479706631</v>
       </c>
     </row>
     <row r="3">
@@ -1170,55 +1170,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1980219769316346</v>
+        <v>0.198021977049759</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0871235707495164</v>
+        <v>0.08712357080951776</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08666716634627442</v>
+        <v>0.08666716623813461</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0817492385773836</v>
+        <v>0.0817492387222849</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07427744658316431</v>
+        <v>0.07427744659819745</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07282519992611038</v>
+        <v>0.07282519987770715</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03747270472119483</v>
+        <v>0.03747270479648322</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2304641154923962</v>
+        <v>0.2304641157359609</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1629533923065402</v>
+        <v>0.16295339296366</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1063055873403217</v>
+        <v>0.106305587609342</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09792085171971628</v>
+        <v>0.0979208521597134</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09736707006199209</v>
+        <v>0.09736706999803627</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2693281469901331</v>
+        <v>0.2693281453971979</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1410605589245879</v>
+        <v>0.1410605563462019</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1180777160706434</v>
+        <v>0.1180777146898602</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.10875200956608</v>
+        <v>0.1087520096050658</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1000902513708765</v>
+        <v>0.1000902524771742</v>
       </c>
     </row>
     <row r="4">
@@ -1228,55 +1228,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1980219769316346</v>
+        <v>0.198021977049759</v>
       </c>
       <c r="C4" t="n">
-        <v>0.285145547681151</v>
+        <v>0.2851455478592767</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3718127140274254</v>
+        <v>0.3718127140974113</v>
       </c>
       <c r="E4" t="n">
-        <v>0.453561952604809</v>
+        <v>0.4535619528196962</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5278393991879733</v>
+        <v>0.5278393994178937</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6006645991140837</v>
+        <v>0.6006645992956009</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6381373038352784</v>
+        <v>0.6381373040920841</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2304641154923962</v>
+        <v>0.2304641157359609</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3934175077989364</v>
+        <v>0.3934175086996209</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4997230951392581</v>
+        <v>0.4997230963089629</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5976439468589744</v>
+        <v>0.5976439484686763</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6950110169209665</v>
+        <v>0.6950110184667125</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2693281469901331</v>
+        <v>0.2693281453971979</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4103887059147209</v>
+        <v>0.4103887017433998</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5284664219853643</v>
+        <v>0.5284664164332601</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6372184315514443</v>
+        <v>0.6372184260383258</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7373086829223208</v>
+        <v>0.7373086785155</v>
       </c>
     </row>
     <row r="5">
@@ -1286,55 +1286,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.310312491906522</v>
+        <v>0.3103124919667509</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1365279387772722</v>
+        <v>0.1365279388163549</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1358127252950028</v>
+        <v>0.135812725070886</v>
       </c>
       <c r="E5" t="n">
-        <v>0.12810603311554</v>
+        <v>0.1281060332910554</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1163972802353793</v>
+        <v>0.1163972802120954</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1141215213221709</v>
+        <v>0.1141215212003941</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05872200934811297</v>
+        <v>0.05872200944246296</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3315977874903292</v>
+        <v>0.3315977871032831</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2344615960599521</v>
+        <v>0.2344615964839767</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1529552550278643</v>
+        <v>0.152955255074756</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1408910784659567</v>
+        <v>0.1408910787856859</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1400942829558977</v>
+        <v>0.1400942825522983</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3652854675773677</v>
+        <v>0.3652854676001701</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1913181848957682</v>
+        <v>0.1913181825422342</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1601469219142283</v>
+        <v>0.1601469209986764</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1474986150102582</v>
+        <v>0.1474986159447186</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1357508106023777</v>
+        <v>0.1357508129142007</v>
       </c>
     </row>
   </sheetData>
@@ -1390,19 +1390,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.117234792812528</v>
+        <v>5.117234762546761</v>
       </c>
       <c r="C2" t="n">
-        <v>2.680150619567169</v>
+        <v>2.680150570577836</v>
       </c>
       <c r="D2" t="n">
-        <v>2.243476605342225</v>
+        <v>2.243476579107345</v>
       </c>
       <c r="E2" t="n">
-        <v>2.066288181755519</v>
+        <v>2.066288182496249</v>
       </c>
       <c r="F2" t="n">
-        <v>1.901714776046654</v>
+        <v>1.90171479706631</v>
       </c>
     </row>
     <row r="3">
@@ -1412,19 +1412,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2693281469901331</v>
+        <v>0.2693281453971979</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1410605589245879</v>
+        <v>0.1410605563462019</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1180777160706434</v>
+        <v>0.1180777146898602</v>
       </c>
       <c r="E3" t="n">
-        <v>0.10875200956608</v>
+        <v>0.1087520096050658</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1000902513708765</v>
+        <v>0.1000902524771742</v>
       </c>
     </row>
     <row r="4">
@@ -1434,19 +1434,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2693281469901331</v>
+        <v>0.2693281453971979</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4103887059147209</v>
+        <v>0.4103887017433998</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5284664219853643</v>
+        <v>0.5284664164332601</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6372184315514443</v>
+        <v>0.6372184260383258</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7373086829223208</v>
+        <v>0.7373086785155</v>
       </c>
     </row>
     <row r="5">
@@ -1456,19 +1456,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3652854675773677</v>
+        <v>0.3652854676001701</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1913181848957682</v>
+        <v>0.1913181825422342</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1601469219142283</v>
+        <v>0.1601469209986764</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1474986150102582</v>
+        <v>0.1474986159447186</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1357508106023777</v>
+        <v>0.1357508129142007</v>
       </c>
     </row>
   </sheetData>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['QEXTRCT', 'QEDLESHI', 'QESL', 'QNOHLTH', 'PPUNIT', 'QSERV', 'QHISPC', 'QFHH', 'PERCAP', 'QRICH', 'MDHSEVAL', 'MEDAGE', 'QSSBEN', 'QAGEDEP', 'QFEMLBR', 'QFEMALE', 'QRENTER', 'QNOAUTO', 'QPOVTY']]</t>
+          <t>[['PPUNIT', 'QNOHLTH', 'QSERV', 'QEXTRCT', 'QESL', 'QHISPC', 'QEDLESHI', 'QFHH', 'PERCAP', 'QRICH', 'MDHSEVAL', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QFEMALE', 'QFEMLBR', 'QRENTER', 'QNOAUTO', 'QPOVTY']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/Travis_County/Documentation/Travis_County_2017_bg_SVI.xlsx
+++ b/Travis_County/Documentation/Travis_County_2017_bg_SVI.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['PPUNIT' 'QNOHLTH' 'QSERV' 'QEXTRCT' 'QESL' 'QHISPC' 'QEDLESHI' 'QFHH'
+          <t>['QEXTRCT' 'QESL' 'QSERV' 'QEDLESHI' 'QNOHLTH' 'QHISPC' 'PPUNIT' 'QFHH'
  'PERCAP']</t>
         </is>
       </c>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['PERCAP' 'QRICH' 'MDHSEVAL']</t>
+          <t>['PERCAP' 'MDHSEVAL' 'QRICH']</t>
         </is>
       </c>
     </row>
@@ -584,45 +584,45 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>PPUNIT</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7302277669272809</v>
+        <v>0.7677511984466771</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.004620269588076043</v>
+        <v>0.1449653472263658</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1512975051829958</v>
+        <v>0.01129679082323866</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05458729952269146</v>
+        <v>-0.2382017694689007</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.4752714268289649</v>
+        <v>0.09278788886193634</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6889886602202583</v>
+        <v>0.8009661387178388</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4149592268437005</v>
+        <v>0.1517950820654715</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1190896980125687</v>
+        <v>-0.03424774606952367</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1154839672367</v>
+        <v>-0.2374898274644041</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2786568980252105</v>
+        <v>0.2037776748145546</v>
       </c>
     </row>
     <row r="4">
@@ -632,63 +632,63 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5817049374264434</v>
+        <v>0.5817049333012769</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3577287403200355</v>
+        <v>0.3577287417576424</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2244058813072648</v>
+        <v>-0.2244058814744912</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.03201466882836596</v>
+        <v>-0.03201466969626714</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2754259478856783</v>
+        <v>0.2754259448578197</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>QEDLESHI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7677511934101074</v>
+        <v>0.8777939243007918</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1449653485907693</v>
+        <v>0.21307792868413</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01129678766226058</v>
+        <v>-0.01839361269349032</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2382017664847616</v>
+        <v>-0.1076883451721703</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09278788606079744</v>
+        <v>0.1846338451410181</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8009661392984533</v>
+        <v>0.6889886583468199</v>
       </c>
       <c r="C6" t="n">
-        <v>0.151795080540303</v>
+        <v>0.4149592284328452</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.03424774568502074</v>
+        <v>-0.1190896984117641</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.2374898269416714</v>
+        <v>-0.1154839674764949</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2037776736638281</v>
+        <v>0.2786568976043149</v>
       </c>
     </row>
     <row r="7">
@@ -698,41 +698,41 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8328587039996096</v>
+        <v>0.8328587037466976</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3339037448970698</v>
+        <v>0.3339037462774875</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1364957895465116</v>
+        <v>-0.1364957892186624</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1269704316134753</v>
+        <v>-0.1269704318459081</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09670565299798836</v>
+        <v>0.09670565408050243</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>QEDLESHI</t>
+          <t>PPUNIT</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8777939322771465</v>
+        <v>0.7302277673805351</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2130779229266954</v>
+        <v>-0.004620268798088629</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01839360962630974</v>
+        <v>-0.1512975025227416</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.1076883447776996</v>
+        <v>0.05458729973644278</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1846338469805828</v>
+        <v>-0.4752714225600125</v>
       </c>
     </row>
     <row r="9">
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5630560154859281</v>
+        <v>0.5630560169926626</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3008187133860031</v>
+        <v>0.300818714433661</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.09551317270938871</v>
+        <v>-0.09551317250923753</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2634165278540286</v>
+        <v>0.2634165306281936</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03178269088452637</v>
+        <v>-0.03178269076239285</v>
       </c>
     </row>
     <row r="10">
@@ -764,63 +764,63 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4895374274546244</v>
+        <v>0.4895374251562408</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7214540806533332</v>
+        <v>0.7214540882141885</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2685725744248457</v>
+        <v>-0.2685725741982778</v>
       </c>
       <c r="E10" t="n">
-        <v>0.05482089686608119</v>
+        <v>0.05482089736171079</v>
       </c>
       <c r="F10" t="n">
-        <v>0.183125353910591</v>
+        <v>0.1831253515136571</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>QRICH</t>
+          <t>MDHSEVAL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2150971475063948</v>
+        <v>0.3857664790363657</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8701305525241234</v>
+        <v>0.8013369796793031</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1729034330861709</v>
+        <v>-0.0360119782936791</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01425153555799462</v>
+        <v>-0.02873185408376866</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2948729863855478</v>
+        <v>-0.03016150005029005</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>MDHSEVAL</t>
+          <t>QRICH</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3857664787720542</v>
+        <v>0.2150971451702484</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8013369875455929</v>
+        <v>0.8701305543413166</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.03601197820671726</v>
+        <v>-0.1729034325530311</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.02873185417247733</v>
+        <v>-0.01425153642124714</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03016150210197751</v>
+        <v>0.2948729834652104</v>
       </c>
     </row>
     <row r="13">
@@ -830,19 +830,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.3105472641016062</v>
+        <v>-0.3105472632153076</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2465384264432842</v>
+        <v>-0.2465384302149843</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7910361932243746</v>
+        <v>0.7910361789229995</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.0128947456807908</v>
+        <v>-0.01289474258032499</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2717085837049965</v>
+        <v>-0.2717085850670972</v>
       </c>
     </row>
     <row r="14">
@@ -852,19 +852,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.04282432074929374</v>
+        <v>-0.04282432122235515</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1184872976686267</v>
+        <v>-0.1184872975786324</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6543380974999534</v>
+        <v>0.654338098356991</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6427560499114501</v>
+        <v>0.6427560482255468</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1139548224937056</v>
+        <v>-0.1139548212529875</v>
       </c>
     </row>
     <row r="15">
@@ -874,19 +874,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01836498138439658</v>
+        <v>0.01836498087975138</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.05367045618418921</v>
+        <v>-0.05367045566410485</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7773306998288915</v>
+        <v>0.7773307050085364</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1362099740686128</v>
+        <v>0.136209972180123</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1455945116013038</v>
+        <v>-0.1455945089574341</v>
       </c>
     </row>
     <row r="16">
@@ -896,19 +896,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.04556235957520197</v>
+        <v>-0.04556235967788509</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.05659266691271623</v>
+        <v>-0.05659266659895962</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1671554291910123</v>
+        <v>0.1671554296834193</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8778432025863659</v>
+        <v>0.8778431994188787</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.02420501690989349</v>
+        <v>-0.024205016697126</v>
       </c>
     </row>
     <row r="17">
@@ -918,19 +918,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.2416846119055139</v>
+        <v>-0.2416846108212953</v>
       </c>
       <c r="C17" t="n">
-        <v>0.08178103489040496</v>
+        <v>0.08178103328087619</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0295955310337048</v>
+        <v>-0.02959552911899165</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7849928999651834</v>
+        <v>0.7849928948715167</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003645846047376428</v>
+        <v>0.00364584598630771</v>
       </c>
     </row>
     <row r="18">
@@ -940,19 +940,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01759023509580655</v>
+        <v>0.01759023366835102</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2288188122079551</v>
+        <v>0.2288188143376303</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.423414426863078</v>
+        <v>-0.4234144295618718</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.09662324553205429</v>
+        <v>-0.09662324506633854</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7659446309671079</v>
+        <v>0.765944627957615</v>
       </c>
     </row>
     <row r="19">
@@ -962,19 +962,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1660837603234652</v>
+        <v>0.1660837593547122</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06295541717908909</v>
+        <v>0.06295541755809009</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1064187385486532</v>
+        <v>-0.1064187374018497</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.01530326288287446</v>
+        <v>-0.01530326253643799</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6312035337968215</v>
+        <v>0.6312035412994589</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3701334413584173</v>
+        <v>0.3701334388547212</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1576334738980672</v>
+        <v>0.1576334788825956</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.3817953695838431</v>
+        <v>-0.3817953681757072</v>
       </c>
       <c r="E20" t="n">
-        <v>0.08010852895572017</v>
+        <v>0.0801085275949794</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4611334674601166</v>
+        <v>0.4611334640287177</v>
       </c>
     </row>
   </sheetData>
@@ -1133,34 +1133,34 @@
         <v>1.011763029505047</v>
       </c>
       <c r="I2" t="n">
-        <v>4.839746430455178</v>
+        <v>4.839746484665732</v>
       </c>
       <c r="J2" t="n">
-        <v>3.42202125223686</v>
+        <v>3.422021249789399</v>
       </c>
       <c r="K2" t="n">
-        <v>2.232417339796182</v>
+        <v>2.232417366728293</v>
       </c>
       <c r="L2" t="n">
-        <v>2.056337895353981</v>
+        <v>2.056337913762225</v>
       </c>
       <c r="M2" t="n">
-        <v>2.044708469958762</v>
+        <v>2.044708480080654</v>
       </c>
       <c r="N2" t="n">
-        <v>5.117234762546761</v>
+        <v>5.117234743583761</v>
       </c>
       <c r="O2" t="n">
-        <v>2.680150570577836</v>
+        <v>2.68015058253364</v>
       </c>
       <c r="P2" t="n">
-        <v>2.243476579107345</v>
+        <v>2.243476565821297</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.066288182496249</v>
+        <v>2.066288169341454</v>
       </c>
       <c r="R2" t="n">
-        <v>1.90171479706631</v>
+        <v>1.901714790266552</v>
       </c>
     </row>
     <row r="3">
@@ -1191,34 +1191,34 @@
         <v>0.03747270479648322</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2304641157359609</v>
+        <v>0.2304641183174158</v>
       </c>
       <c r="J3" t="n">
-        <v>0.16295339296366</v>
+        <v>0.1629533928471142</v>
       </c>
       <c r="K3" t="n">
-        <v>0.106305587609342</v>
+        <v>0.1063055888918235</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0979208521597134</v>
+        <v>0.09792085303629643</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09736706999803627</v>
+        <v>0.09736707048003114</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2693281453971979</v>
+        <v>0.2693281443991453</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1410605563462019</v>
+        <v>0.1410605569754547</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1180777146898602</v>
+        <v>0.1180777139905946</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1087520096050658</v>
+        <v>0.1087520089127081</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1000902524771742</v>
+        <v>0.1000902521192922</v>
       </c>
     </row>
     <row r="4">
@@ -1249,34 +1249,34 @@
         <v>0.6381373040920841</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2304641157359609</v>
+        <v>0.2304641183174158</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3934175086996209</v>
+        <v>0.3934175111645301</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4997230963089629</v>
+        <v>0.4997231000563535</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5976439484686763</v>
+        <v>0.5976439530926499</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6950110184667125</v>
+        <v>0.6950110235726811</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2693281453971979</v>
+        <v>0.2693281443991453</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4103887017433998</v>
+        <v>0.4103887013746</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5284664164332601</v>
+        <v>0.5284664153651946</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6372184260383258</v>
+        <v>0.6372184242779027</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7373086785155</v>
+        <v>0.7373086763971949</v>
       </c>
     </row>
     <row r="5">
@@ -1307,34 +1307,34 @@
         <v>0.05872200944246296</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3315977871032831</v>
+        <v>0.3315977883814312</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2344615964839767</v>
+        <v>0.2344615945937918</v>
       </c>
       <c r="K5" t="n">
-        <v>0.152955255074756</v>
+        <v>0.1529552557963227</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1408910787856859</v>
+        <v>0.1408910790118659</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1400942825522983</v>
+        <v>0.1400942822165884</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3652854676001701</v>
+        <v>0.365285467296001</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1913181825422342</v>
+        <v>0.1913181839453414</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1601469209986764</v>
+        <v>0.1601469205103793</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1474986159447186</v>
+        <v>0.147498615429452</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1357508129142007</v>
+        <v>0.1357508128188263</v>
       </c>
     </row>
   </sheetData>
@@ -1390,19 +1390,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.117234762546761</v>
+        <v>5.117234743583761</v>
       </c>
       <c r="C2" t="n">
-        <v>2.680150570577836</v>
+        <v>2.68015058253364</v>
       </c>
       <c r="D2" t="n">
-        <v>2.243476579107345</v>
+        <v>2.243476565821297</v>
       </c>
       <c r="E2" t="n">
-        <v>2.066288182496249</v>
+        <v>2.066288169341454</v>
       </c>
       <c r="F2" t="n">
-        <v>1.90171479706631</v>
+        <v>1.901714790266552</v>
       </c>
     </row>
     <row r="3">
@@ -1412,19 +1412,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2693281453971979</v>
+        <v>0.2693281443991453</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1410605563462019</v>
+        <v>0.1410605569754547</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1180777146898602</v>
+        <v>0.1180777139905946</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1087520096050658</v>
+        <v>0.1087520089127081</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1000902524771742</v>
+        <v>0.1000902521192922</v>
       </c>
     </row>
     <row r="4">
@@ -1434,19 +1434,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2693281453971979</v>
+        <v>0.2693281443991453</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4103887017433998</v>
+        <v>0.4103887013746</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5284664164332601</v>
+        <v>0.5284664153651946</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6372184260383258</v>
+        <v>0.6372184242779027</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7373086785155</v>
+        <v>0.7373086763971949</v>
       </c>
     </row>
     <row r="5">
@@ -1456,19 +1456,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3652854676001701</v>
+        <v>0.365285467296001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1913181825422342</v>
+        <v>0.1913181839453414</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1601469209986764</v>
+        <v>0.1601469205103793</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1474986159447186</v>
+        <v>0.147498615429452</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1357508129142007</v>
+        <v>0.1357508128188263</v>
       </c>
     </row>
   </sheetData>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['PPUNIT', 'QNOHLTH', 'QSERV', 'QEXTRCT', 'QESL', 'QHISPC', 'QEDLESHI', 'QFHH', 'PERCAP', 'QRICH', 'MDHSEVAL', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QFEMALE', 'QFEMLBR', 'QRENTER', 'QNOAUTO', 'QPOVTY']]</t>
+          <t>[['QEXTRCT', 'QESL', 'QSERV', 'QEDLESHI', 'QNOHLTH', 'QHISPC', 'PPUNIT', 'QFHH', 'PERCAP', 'MDHSEVAL', 'QRICH', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QFEMALE', 'QFEMLBR', 'QRENTER', 'QNOAUTO', 'QPOVTY']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/Travis_County/Documentation/Travis_County_2017_bg_SVI.xlsx
+++ b/Travis_County/Documentation/Travis_County_2017_bg_SVI.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['QEXTRCT' 'QESL' 'QSERV' 'QEDLESHI' 'QNOHLTH' 'QHISPC' 'PPUNIT' 'QFHH'
+          <t>['QSERV' 'QHISPC' 'QEDLESHI' 'QNOHLTH' 'QESL' 'PPUNIT' 'QEXTRCT' 'QFHH'
  'PERCAP']</t>
         </is>
       </c>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['PERCAP' 'MDHSEVAL' 'QRICH']</t>
+          <t>['PERCAP' 'QRICH' 'MDHSEVAL']</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['MEDAGE' 'QAGEDEP' 'QSSBEN']</t>
+          <t>['QAGEDEP' 'MEDAGE' 'QSSBEN']</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['QAGEDEP' 'QFEMALE' 'QFEMLBR']</t>
+          <t>['QAGEDEP' 'QFEMLBR' 'QFEMALE']</t>
         </is>
       </c>
     </row>
@@ -584,155 +584,155 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>QSERV</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7677511984466771</v>
+        <v>0.5817049338713295</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1449653472263658</v>
+        <v>0.357728739689089</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01129679082323866</v>
+        <v>-0.2244058845813555</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.2382017694689007</v>
+        <v>-0.03201466741222177</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09278788886193634</v>
+        <v>0.2754259411710515</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>QHISPC</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8009661387178388</v>
+        <v>0.8328587010890846</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1517950820654715</v>
+        <v>0.3339037451707143</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.03424774606952367</v>
+        <v>-0.1364957926512206</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2374898274644041</v>
+        <v>-0.1269704285522055</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2037776748145546</v>
+        <v>0.09670565101208484</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>QSERV</t>
+          <t>QEDLESHI</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5817049333012769</v>
+        <v>0.8777939327518004</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3577287417576424</v>
+        <v>0.2130779242463672</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2244058814744912</v>
+        <v>-0.01839361158788122</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.03201466969626714</v>
+        <v>-0.1076883429830311</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2754259448578197</v>
+        <v>0.1846338453811155</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>QEDLESHI</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8777939243007918</v>
+        <v>0.6889886593829873</v>
       </c>
       <c r="C5" t="n">
-        <v>0.21307792868413</v>
+        <v>0.4149592263924404</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.01839361269349032</v>
+        <v>-0.1190897026747462</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1076883451721703</v>
+        <v>-0.1154839644404644</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1846338451410181</v>
+        <v>0.2786568941960132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6889886583468199</v>
+        <v>0.8009661451308956</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4149592284328452</v>
+        <v>0.1517950782154231</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1190896984117641</v>
+        <v>-0.03424774610890587</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.1154839674764949</v>
+        <v>-0.2374898262054474</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2786568976043149</v>
+        <v>0.2037776753746855</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>QHISPC</t>
+          <t>PPUNIT</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8328587037466976</v>
+        <v>0.7302277632447152</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3339037462774875</v>
+        <v>-0.004620267764485815</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1364957892186624</v>
+        <v>-0.1512975013944436</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1269704318459081</v>
+        <v>0.05458729963722662</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09670565408050243</v>
+        <v>-0.4752714245440762</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>PPUNIT</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7302277673805351</v>
+        <v>0.7677511994868141</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.004620268798088629</v>
+        <v>0.1449653467374824</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1512975025227416</v>
+        <v>0.01129678864827885</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05458729973644278</v>
+        <v>-0.2382017668993546</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.4752714225600125</v>
+        <v>0.09278788674142219</v>
       </c>
     </row>
     <row r="9">
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5630560169926626</v>
+        <v>0.5630560198586153</v>
       </c>
       <c r="C9" t="n">
-        <v>0.300818714433661</v>
+        <v>0.3008187141192311</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.09551317250923753</v>
+        <v>-0.09551317420652185</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2634165306281936</v>
+        <v>0.2634165345840366</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03178269076239285</v>
+        <v>-0.03178269667396563</v>
       </c>
     </row>
     <row r="10">
@@ -764,107 +764,107 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4895374251562408</v>
+        <v>0.4895374268553458</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7214540882141885</v>
+        <v>0.721454085175546</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2685725741982778</v>
+        <v>-0.2685725771886172</v>
       </c>
       <c r="E10" t="n">
-        <v>0.05482089736171079</v>
+        <v>0.05482089910664199</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1831253515136571</v>
+        <v>0.1831253495400197</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>MDHSEVAL</t>
+          <t>QRICH</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3857664790363657</v>
+        <v>0.215097143564559</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8013369796793031</v>
+        <v>0.8701305635565615</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0360119782936791</v>
+        <v>-0.1729034328402849</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.02873185408376866</v>
+        <v>-0.01425153590998154</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.03016150005029005</v>
+        <v>0.2948729848375892</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>QRICH</t>
+          <t>MDHSEVAL</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2150971451702484</v>
+        <v>0.3857664786261823</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8701305543413166</v>
+        <v>0.8013369886790841</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1729034325530311</v>
+        <v>-0.03601197779313163</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.01425153642124714</v>
+        <v>-0.02873185420482495</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2948729834652104</v>
+        <v>-0.03016150458661936</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>MEDAGE</t>
+          <t>QAGEDEP</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.3105472632153076</v>
+        <v>-0.04282432248387342</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2465384302149843</v>
+        <v>-0.1184872953833233</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7910361789229995</v>
+        <v>0.6543381063288032</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.01289474258032499</v>
+        <v>0.6427560393897815</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2717085850670972</v>
+        <v>-0.1139548187338235</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>QAGEDEP</t>
+          <t>MEDAGE</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.04282432122235515</v>
+        <v>-0.3105472636462374</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1184872975786324</v>
+        <v>-0.2465384279923527</v>
       </c>
       <c r="D14" t="n">
-        <v>0.654338098356991</v>
+        <v>0.7910361825210296</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6427560482255468</v>
+        <v>-0.01289474646594264</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1139548212529875</v>
+        <v>-0.271708580213839</v>
       </c>
     </row>
     <row r="15">
@@ -874,63 +874,63 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01836498087975138</v>
+        <v>0.01836497920271595</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.05367045566410485</v>
+        <v>-0.05367045514883373</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7773307050085364</v>
+        <v>0.7773306974995353</v>
       </c>
       <c r="E15" t="n">
-        <v>0.136209972180123</v>
+        <v>0.1362099676011545</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1455945089574341</v>
+        <v>-0.1455945088309715</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>QFEMALE</t>
+          <t>QFEMLBR</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.04556235967788509</v>
+        <v>-0.2416846134945231</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.05659266659895962</v>
+        <v>0.08178103491007524</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1671554296834193</v>
+        <v>-0.02959553020525794</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8778431994188787</v>
+        <v>0.7849929108617704</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.024205016697126</v>
+        <v>0.003645845585976967</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>QFEMLBR</t>
+          <t>QFEMALE</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.2416846108212953</v>
+        <v>-0.04556235807336762</v>
       </c>
       <c r="C17" t="n">
-        <v>0.08178103328087619</v>
+        <v>-0.05659266919884228</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.02959552911899165</v>
+        <v>0.1671554368380671</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7849928948715167</v>
+        <v>0.8778432099141861</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00364584598630771</v>
+        <v>-0.02420501412752381</v>
       </c>
     </row>
     <row r="18">
@@ -940,19 +940,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01759023366835102</v>
+        <v>0.01759023568044128</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2288188143376303</v>
+        <v>0.2288188123825083</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.4234144295618718</v>
+        <v>-0.4234144335062181</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.09662324506633854</v>
+        <v>-0.09662324182207796</v>
       </c>
       <c r="F18" t="n">
-        <v>0.765944627957615</v>
+        <v>0.7659446312787375</v>
       </c>
     </row>
     <row r="19">
@@ -962,19 +962,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1660837593547122</v>
+        <v>0.1660837611468413</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06295541755809009</v>
+        <v>0.06295541642402984</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1064187374018497</v>
+        <v>-0.106418739822054</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.01530326253643799</v>
+        <v>-0.0153032610956329</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6312035412994589</v>
+        <v>0.6312035431698786</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3701334388547212</v>
+        <v>0.370133440062485</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1576334788825956</v>
+        <v>0.1576334771461969</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.3817953681757072</v>
+        <v>-0.3817953717735523</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0801085275949794</v>
+        <v>0.08010852997758064</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4611334640287177</v>
+        <v>0.4611334617895158</v>
       </c>
     </row>
   </sheetData>
@@ -1133,34 +1133,34 @@
         <v>1.011763029505047</v>
       </c>
       <c r="I2" t="n">
-        <v>4.839746484665732</v>
+        <v>4.839746419273361</v>
       </c>
       <c r="J2" t="n">
-        <v>3.422021249789399</v>
+        <v>3.422021257792846</v>
       </c>
       <c r="K2" t="n">
-        <v>2.232417366728293</v>
+        <v>2.232417330885144</v>
       </c>
       <c r="L2" t="n">
-        <v>2.056337913762225</v>
+        <v>2.05633789583397</v>
       </c>
       <c r="M2" t="n">
-        <v>2.044708480080654</v>
+        <v>2.044708482541559</v>
       </c>
       <c r="N2" t="n">
-        <v>5.117234743583761</v>
+        <v>5.117234768818557</v>
       </c>
       <c r="O2" t="n">
-        <v>2.68015058253364</v>
+        <v>2.680150598601196</v>
       </c>
       <c r="P2" t="n">
-        <v>2.243476565821297</v>
+        <v>2.243476584242993</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.066288169341454</v>
+        <v>2.066288198356862</v>
       </c>
       <c r="R2" t="n">
-        <v>1.901714790266552</v>
+        <v>1.901714790296077</v>
       </c>
     </row>
     <row r="3">
@@ -1191,34 +1191,34 @@
         <v>0.03747270479648322</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2304641183174158</v>
+        <v>0.2304641152034934</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1629533928471142</v>
+        <v>0.1629533932282307</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1063055888918235</v>
+        <v>0.1063055871850068</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09792085303629643</v>
+        <v>0.09792085218257</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09736707048003114</v>
+        <v>0.0973670705972171</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2693281443991453</v>
+        <v>0.2693281457272925</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1410605569754547</v>
+        <v>0.1410605578211156</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1180777139905946</v>
+        <v>0.1180777149601576</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1087520089127081</v>
+        <v>0.1087520104398348</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1000902521192922</v>
+        <v>0.1000902521208462</v>
       </c>
     </row>
     <row r="4">
@@ -1249,34 +1249,34 @@
         <v>0.6381373040920841</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2304641183174158</v>
+        <v>0.2304641152034934</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3934175111645301</v>
+        <v>0.3934175084317241</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4997231000563535</v>
+        <v>0.4997230956167309</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5976439530926499</v>
+        <v>0.5976439477993009</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6950110235726811</v>
+        <v>0.6950110183965179</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2693281443991453</v>
+        <v>0.2693281457272925</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4103887013746</v>
+        <v>0.4103887035484081</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5284664153651946</v>
+        <v>0.5284664185085656</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6372184242779027</v>
+        <v>0.6372184289484004</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7373086763971949</v>
+        <v>0.7373086810692466</v>
       </c>
     </row>
     <row r="5">
@@ -1307,34 +1307,34 @@
         <v>0.05872200944246296</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3315977883814312</v>
+        <v>0.3315977863706456</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2344615945937918</v>
+        <v>0.2344615968883281</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1529552557963227</v>
+        <v>0.1529552544796597</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1408910790118659</v>
+        <v>0.1408910788328023</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1400942822165884</v>
+        <v>0.1400942834285646</v>
       </c>
       <c r="N5" t="n">
-        <v>0.365285467296001</v>
+        <v>0.3652854667826672</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1913181839453414</v>
+        <v>0.1913181838799853</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1601469205103793</v>
+        <v>0.1601469208105905</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.147498615429452</v>
+        <v>0.1474986165660256</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1357508128188263</v>
+        <v>0.1357508119607314</v>
       </c>
     </row>
   </sheetData>
@@ -1390,19 +1390,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.117234743583761</v>
+        <v>5.117234768818557</v>
       </c>
       <c r="C2" t="n">
-        <v>2.68015058253364</v>
+        <v>2.680150598601196</v>
       </c>
       <c r="D2" t="n">
-        <v>2.243476565821297</v>
+        <v>2.243476584242993</v>
       </c>
       <c r="E2" t="n">
-        <v>2.066288169341454</v>
+        <v>2.066288198356862</v>
       </c>
       <c r="F2" t="n">
-        <v>1.901714790266552</v>
+        <v>1.901714790296077</v>
       </c>
     </row>
     <row r="3">
@@ -1412,19 +1412,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2693281443991453</v>
+        <v>0.2693281457272925</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1410605569754547</v>
+        <v>0.1410605578211156</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1180777139905946</v>
+        <v>0.1180777149601576</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1087520089127081</v>
+        <v>0.1087520104398348</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1000902521192922</v>
+        <v>0.1000902521208462</v>
       </c>
     </row>
     <row r="4">
@@ -1434,19 +1434,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2693281443991453</v>
+        <v>0.2693281457272925</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4103887013746</v>
+        <v>0.4103887035484081</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5284664153651946</v>
+        <v>0.5284664185085656</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6372184242779027</v>
+        <v>0.6372184289484004</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7373086763971949</v>
+        <v>0.7373086810692466</v>
       </c>
     </row>
     <row r="5">
@@ -1456,19 +1456,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.365285467296001</v>
+        <v>0.3652854667826672</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1913181839453414</v>
+        <v>0.1913181838799853</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1601469205103793</v>
+        <v>0.1601469208105905</v>
       </c>
       <c r="E5" t="n">
-        <v>0.147498615429452</v>
+        <v>0.1474986165660256</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1357508128188263</v>
+        <v>0.1357508119607314</v>
       </c>
     </row>
   </sheetData>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['QEXTRCT', 'QESL', 'QSERV', 'QEDLESHI', 'QNOHLTH', 'QHISPC', 'PPUNIT', 'QFHH', 'PERCAP', 'MDHSEVAL', 'QRICH', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QFEMALE', 'QFEMLBR', 'QRENTER', 'QNOAUTO', 'QPOVTY']]</t>
+          <t>[['QSERV', 'QHISPC', 'QEDLESHI', 'QNOHLTH', 'QESL', 'PPUNIT', 'QEXTRCT', 'QFHH', 'PERCAP', 'QRICH', 'MDHSEVAL', 'QAGEDEP', 'MEDAGE', 'QSSBEN', 'QFEMLBR', 'QFEMALE', 'QRENTER', 'QNOAUTO', 'QPOVTY']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
